--- a/biology/Biochimie/Strigolactone/Strigolactone.xlsx
+++ b/biology/Biochimie/Strigolactone/Strigolactone.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les strigolactones sont un groupe de composés chimiques produits par les racines d'une plante.
 En raison de leur mécanisme d'action, ces molécules ont été classées comme hormones végétales ou phytohormones.
@@ -518,13 +530,15 @@
           <t>Fonctions des strigolactones</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">On en connaît plusieurs :
 Hormone impliquée dans la germination de certaines plantes.
-Médiation chimique dans les interactions entre plantes et leurs champignons mycorhiziens : ces derniers sont, grâce à cette hormone émise par les exsudats de racines, stimulés dans leur croissance[1] et guidés vers la plante, ayant pour conséquence une augmentation des chances de mycorrhization rapide[2],[3]. Des recherches en cours actuellement visent à synthétiser industriellement cette hormone pour faciliter la mycorrhization des plantes cultivées en champ, en serre ou en forêt[4].
-Contrôle de la ramification des plantes. Ce type d'hormone agit en inhibant la croissance des bourgeons situés à l’aisselle des feuilles. Les plantes mutantes qui n'en produisent pas sont « hyper-ramifiées ». En conséquence, certains cherchent à utiliser cette hormone en sylviculture pour contrôler la forme et la croissance d'arbres[5].
-Les strigolactones pourraient également être impliquées dans certaines formes de parasitisme, par attraction de ces parasites[6].
+Médiation chimique dans les interactions entre plantes et leurs champignons mycorhiziens : ces derniers sont, grâce à cette hormone émise par les exsudats de racines, stimulés dans leur croissance et guidés vers la plante, ayant pour conséquence une augmentation des chances de mycorrhization rapide,. Des recherches en cours actuellement visent à synthétiser industriellement cette hormone pour faciliter la mycorrhization des plantes cultivées en champ, en serre ou en forêt.
+Contrôle de la ramification des plantes. Ce type d'hormone agit en inhibant la croissance des bourgeons situés à l’aisselle des feuilles. Les plantes mutantes qui n'en produisent pas sont « hyper-ramifiées ». En conséquence, certains cherchent à utiliser cette hormone en sylviculture pour contrôler la forme et la croissance d'arbres.
+Les strigolactones pourraient également être impliquées dans certaines formes de parasitisme, par attraction de ces parasites.
 Le mécanisme de reconnaissance des champignons est similaire à celui de la reconnaissance de bactéries telles que Rhizobia sp.
 </t>
         </is>
